--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\faculta\Anul 3\sem2\vvss\lab\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\faculta\Anul 3\sem2\vvss\lab\lab1\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA28D3-655E-431E-BFB0-3B0908419F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91122E9E-D188-4DBE-99DC-599575BBB4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -181,16 +181,10 @@
     <t>A05</t>
   </si>
   <si>
-    <t>A06</t>
-  </si>
-  <si>
     <t>A07</t>
   </si>
   <si>
     <t>Ar trebui sa fie facut hadle la erori</t>
-  </si>
-  <si>
-    <t>Se foloseste MVC</t>
   </si>
   <si>
     <t>Denumirile ar trebui sa reflecte atributiile campurilor</t>
@@ -1257,7 +1251,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="1"/>
@@ -1283,8 +1277,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1407,7 +1401,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1420,21 +1414,17 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -1564,7 +1554,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1"/>
@@ -1711,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1726,13 +1716,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1741,13 +1731,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1756,13 +1746,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1920,7 +1910,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1"/>
@@ -1946,7 +1936,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -2061,16 +2051,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2079,13 +2069,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>74</v>
-      </c>
       <c r="E11" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -2095,16 +2085,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>78</v>
-      </c>
       <c r="F12" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="216" x14ac:dyDescent="0.3">
@@ -2113,16 +2103,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,16 +2121,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2305,7 +2295,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C32" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
